--- a/ProjectFiles/MainTable.xlsx
+++ b/ProjectFiles/MainTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Фильтр</t>
   </si>
@@ -410,7 +410,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,9 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
